--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009DF89-CB46-1A4C-981B-85CCB0B65074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E40A1A-2472-8A42-90AD-EF0CB360BCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="920" windowWidth="13640" windowHeight="17260" xr2:uid="{3BDED087-3407-8241-8728-00B8A6385B6E}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="G1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="L11" s="5">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="7:13">
@@ -760,7 +760,7 @@
       </c>
       <c r="L12" s="2">
         <f>NPV(L11,Model!AA27:FD27)+L5-L6</f>
-        <v>362048.78255838843</v>
+        <v>444083.05630086106</v>
       </c>
     </row>
     <row r="13" spans="7:13">
@@ -769,13 +769,13 @@
       </c>
       <c r="L13" s="6">
         <f>L12/L3</f>
-        <v>129.44182429688539</v>
+        <v>158.77120353981448</v>
       </c>
     </row>
     <row r="15" spans="7:13">
       <c r="L15" s="7">
         <f>L13/L2-1</f>
-        <v>-0.15397500459552038</v>
+        <v>3.7720284573950824E-2</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
         <v>1195</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" ref="Q6:Q12" si="0">M6*1.0835</f>
+        <f t="shared" ref="Q6:Q8" si="0">M6*1.0835</f>
         <v>1360.876</v>
       </c>
       <c r="R6" s="9">
@@ -1258,31 +1258,31 @@
         <v>57689.171099999992</v>
       </c>
       <c r="AB9" s="15">
-        <f>AA9*(1+AB31)</f>
+        <f t="shared" ref="AB9:AH9" si="9">AA9*(1+AB31)</f>
         <v>64934.930990159985</v>
       </c>
       <c r="AC9" s="15">
-        <f>AB9*(1+AC31)</f>
+        <f t="shared" si="9"/>
         <v>71428.424089175984</v>
       </c>
       <c r="AD9" s="15">
-        <f>AC9*(1+AD31)</f>
+        <f t="shared" si="9"/>
         <v>77856.982257201831</v>
       </c>
       <c r="AE9" s="15">
-        <f>AD9*(1+AE31)</f>
+        <f t="shared" si="9"/>
         <v>85642.68048292202</v>
       </c>
       <c r="AF9" s="15">
-        <f>AE9*(1+AF31)</f>
+        <f t="shared" si="9"/>
         <v>93350.521726385006</v>
       </c>
       <c r="AG9" s="15">
-        <f>AF9*(1+AG31)</f>
+        <f t="shared" si="9"/>
         <v>100818.56346449582</v>
       </c>
       <c r="AH9" s="15">
-        <f>AG9*(1+AH31)</f>
+        <f t="shared" si="9"/>
         <v>107875.86290701054</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>#REF!</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" ref="I13" si="9">SUM(I10:I12)</f>
+        <f t="shared" ref="I13" si="10">SUM(I10:I12)</f>
         <v>3439</v>
       </c>
       <c r="J13" s="23" t="e">
@@ -1514,23 +1514,23 @@
         <v>#REF!</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" ref="K13:O13" si="10">SUM(K10:K12)</f>
+        <f t="shared" ref="K13:O13" si="11">SUM(K10:K12)</f>
         <v>3610</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" ref="L13:M13" si="11">SUM(L10:L12)</f>
+        <f t="shared" ref="L13:M13" si="12">SUM(L10:L12)</f>
         <v>3740</v>
       </c>
       <c r="M13" s="11">
+        <f t="shared" si="12"/>
+        <v>3869</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" ref="N13" si="13">SUM(N10:N12)</f>
+        <v>3924</v>
+      </c>
+      <c r="O13" s="11">
         <f t="shared" si="11"/>
-        <v>3869</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" ref="N13" si="12">SUM(N10:N12)</f>
-        <v>3924</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="10"/>
         <v>3906</v>
       </c>
       <c r="P13" s="11">
@@ -1538,103 +1538,103 @@
         <v>4085</v>
       </c>
       <c r="Q13" s="11">
-        <f t="shared" ref="Q13:R13" si="13">SUM(Q10:Q12)</f>
+        <f t="shared" ref="Q13:R13" si="14">SUM(Q10:Q12)</f>
         <v>4063</v>
       </c>
       <c r="R13" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4309.6505999999999</v>
       </c>
       <c r="S13" s="11">
-        <f t="shared" ref="S13" si="14">SUM(S10:S12)</f>
+        <f t="shared" ref="S13" si="15">SUM(S10:S12)</f>
         <v>0</v>
       </c>
       <c r="T13" s="11">
-        <f t="shared" ref="T13" si="15">SUM(T10:T12)</f>
+        <f t="shared" ref="T13" si="16">SUM(T10:T12)</f>
         <v>0</v>
       </c>
       <c r="U13" s="11">
-        <f t="shared" ref="U13" si="16">SUM(U10:U12)</f>
+        <f t="shared" ref="U13" si="17">SUM(U10:U12)</f>
         <v>7995</v>
       </c>
       <c r="V13" s="11">
-        <f t="shared" ref="V13" si="17">SUM(V10:V12)</f>
+        <f t="shared" ref="V13" si="18">SUM(V10:V12)</f>
         <v>7938</v>
       </c>
       <c r="W13" s="11">
-        <f t="shared" ref="W13" si="18">SUM(W10:W12)</f>
+        <f t="shared" ref="W13" si="19">SUM(W10:W12)</f>
         <v>7855</v>
       </c>
       <c r="X13" s="11">
-        <f t="shared" ref="X13" si="19">SUM(X10:X12)</f>
+        <f t="shared" ref="X13" si="20">SUM(X10:X12)</f>
         <v>8877</v>
       </c>
       <c r="Y13" s="11">
-        <f t="shared" ref="Y13" si="20">SUM(Y10:Y12)</f>
+        <f t="shared" ref="Y13" si="21">SUM(Y10:Y12)</f>
         <v>13564</v>
       </c>
       <c r="Z13" s="11">
-        <f t="shared" ref="Z13:AA13" si="21">SUM(Z10:Z12)</f>
+        <f t="shared" ref="Z13:AA13" si="22">SUM(Z10:Z12)</f>
         <v>15143</v>
       </c>
       <c r="AA13" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16363.650599999999</v>
       </c>
       <c r="AB13" s="11">
-        <f t="shared" ref="AB13" si="22">SUM(AB10:AB12)</f>
+        <f t="shared" ref="AB13" si="23">SUM(AB10:AB12)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="11">
-        <f t="shared" ref="AC13" si="23">SUM(AC10:AC12)</f>
+        <f t="shared" ref="AC13" si="24">SUM(AC10:AC12)</f>
         <v>0</v>
       </c>
       <c r="AD13" s="11">
-        <f t="shared" ref="AD13" si="24">SUM(AD10:AD12)</f>
+        <f t="shared" ref="AD13" si="25">SUM(AD10:AD12)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <f t="shared" ref="AE13" si="25">SUM(AE10:AE12)</f>
+        <f t="shared" ref="AE13" si="26">SUM(AE10:AE12)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="11">
-        <f t="shared" ref="AF13" si="26">SUM(AF10:AF12)</f>
+        <f t="shared" ref="AF13" si="27">SUM(AF10:AF12)</f>
         <v>0</v>
       </c>
       <c r="AG13" s="11">
-        <f t="shared" ref="AG13" si="27">SUM(AG10:AG12)</f>
+        <f t="shared" ref="AG13" si="28">SUM(AG10:AG12)</f>
         <v>0</v>
       </c>
       <c r="AH13" s="11">
-        <f t="shared" ref="AH13" si="28">SUM(AH10:AH12)</f>
+        <f t="shared" ref="AH13" si="29">SUM(AH10:AH12)</f>
         <v>0</v>
       </c>
       <c r="AI13" s="11">
-        <f t="shared" ref="AI13" si="29">SUM(AI10:AI12)</f>
+        <f t="shared" ref="AI13" si="30">SUM(AI10:AI12)</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="11">
-        <f t="shared" ref="AJ13" si="30">SUM(AJ10:AJ12)</f>
+        <f t="shared" ref="AJ13" si="31">SUM(AJ10:AJ12)</f>
         <v>0</v>
       </c>
       <c r="AK13" s="11">
-        <f t="shared" ref="AK13" si="31">SUM(AK10:AK12)</f>
+        <f t="shared" ref="AK13" si="32">SUM(AK10:AK12)</f>
         <v>0</v>
       </c>
       <c r="AL13" s="11">
-        <f t="shared" ref="AL13" si="32">SUM(AL10:AL12)</f>
+        <f t="shared" ref="AL13" si="33">SUM(AL10:AL12)</f>
         <v>0</v>
       </c>
       <c r="AM13" s="11">
-        <f t="shared" ref="AM13" si="33">SUM(AM10:AM12)</f>
+        <f t="shared" ref="AM13" si="34">SUM(AM10:AM12)</f>
         <v>0</v>
       </c>
       <c r="AN13" s="11">
-        <f t="shared" ref="AN13" si="34">SUM(AN10:AN12)</f>
+        <f t="shared" ref="AN13" si="35">SUM(AN10:AN12)</f>
         <v>0</v>
       </c>
       <c r="AO13" s="11">
-        <f t="shared" ref="AO13" si="35">SUM(AO10:AO12)</f>
+        <f t="shared" ref="AO13" si="36">SUM(AO10:AO12)</f>
         <v>0</v>
       </c>
     </row>
@@ -1643,43 +1643,43 @@
         <v>25</v>
       </c>
       <c r="C14" s="23" t="e">
-        <f t="shared" ref="C14:M14" si="36">C9-C13</f>
+        <f t="shared" ref="C14:L14" si="37">C9-C13</f>
         <v>#REF!</v>
       </c>
       <c r="D14" s="23" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>#REF!</v>
       </c>
       <c r="E14" s="23" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>#REF!</v>
       </c>
       <c r="F14" s="23" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>#REF!</v>
       </c>
       <c r="G14" s="23" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>#REF!</v>
       </c>
       <c r="H14" s="23" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>#REF!</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8959</v>
       </c>
       <c r="J14" s="23" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>#REF!</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8843</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9201</v>
       </c>
       <c r="M14" s="11">
@@ -1707,27 +1707,27 @@
         <v>11624.640499999998</v>
       </c>
       <c r="T14" s="11">
-        <f t="shared" ref="T14:Y14" si="37">T9-T13</f>
+        <f t="shared" ref="T14:Y14" si="38">T9-T13</f>
         <v>0</v>
       </c>
       <c r="U14" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>31511</v>
       </c>
       <c r="V14" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>31130</v>
       </c>
       <c r="W14" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>32624</v>
       </c>
       <c r="X14" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>33563</v>
       </c>
       <c r="Y14" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>36390</v>
       </c>
       <c r="Z14" s="11">
@@ -1779,7 +1779,7 @@
         <v>2042</v>
       </c>
       <c r="N15" s="9">
-        <f>Z15-SUM(K15:M15)</f>
+        <f t="shared" ref="N15:N20" si="39">Z15-SUM(K15:M15)</f>
         <v>2113</v>
       </c>
       <c r="O15" s="9">
@@ -1815,7 +1815,7 @@
         <v>8274</v>
       </c>
       <c r="AA15" s="9">
-        <f t="shared" ref="AA15:AA20" si="38">SUM(O15:R15)</f>
+        <f t="shared" ref="AA15:AA20" si="40">SUM(O15:R15)</f>
         <v>8772.6288999999997</v>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
         <v>2248</v>
       </c>
       <c r="N16" s="9">
-        <f>Z16-SUM(K16:M16)</f>
+        <f t="shared" si="39"/>
         <v>2225</v>
       </c>
       <c r="O16" s="9">
@@ -1879,7 +1879,7 @@
         <v>8915</v>
       </c>
       <c r="AA16" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9729.5424999999996</v>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
         <v>377</v>
       </c>
       <c r="N17" s="9">
-        <f>Z17-SUM(K17:M17)</f>
+        <f t="shared" si="39"/>
         <v>403</v>
       </c>
       <c r="O17" s="9">
@@ -1959,7 +1959,7 @@
         <v>1548</v>
       </c>
       <c r="AA17" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1461</v>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
         <v>749</v>
       </c>
       <c r="N18" s="9">
-        <f>Z18-SUM(K18:M18)</f>
+        <f t="shared" si="39"/>
         <v>743</v>
       </c>
       <c r="O18" s="9">
@@ -2023,7 +2023,7 @@
         <v>3010</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2397</v>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
         <v>155</v>
       </c>
       <c r="N19" s="9">
-        <f>Z19-SUM(K19:M19)</f>
+        <f t="shared" si="39"/>
         <v>101</v>
       </c>
       <c r="O19" s="9">
@@ -2083,7 +2083,7 @@
         <v>314</v>
       </c>
       <c r="AA19" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>75</v>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="N20" s="9">
-        <f>Z20-SUM(K20:M20)</f>
+        <f t="shared" si="39"/>
         <v>93</v>
       </c>
       <c r="O20" s="9">
@@ -2143,7 +2143,7 @@
         <v>404</v>
       </c>
       <c r="AA20" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>241</v>
       </c>
     </row>
@@ -2152,55 +2152,55 @@
         <v>26</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" ref="C21:J21" si="39">C15+C17</f>
+        <f t="shared" ref="C21:J21" si="41">C15+C17</f>
         <v>319</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>341</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>376</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7900</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>890</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1208</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" ref="I21:O21" si="40">SUM(I15:I20)</f>
+        <f t="shared" ref="I21:O21" si="42">SUM(I15:I20)</f>
         <v>5699</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4714</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5547</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5579</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5661</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5678</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5410</v>
       </c>
       <c r="P21" s="11">
@@ -2212,115 +2212,115 @@
         <v>5725</v>
       </c>
       <c r="R21" s="11">
-        <f t="shared" ref="R21" si="41">SUM(R15:R20)</f>
+        <f t="shared" ref="R21" si="43">SUM(R15:R20)</f>
         <v>5787.1713999999993</v>
       </c>
       <c r="S21" s="11">
-        <f t="shared" ref="S21" si="42">SUM(S15:S20)</f>
+        <f t="shared" ref="S21" si="44">SUM(S15:S20)</f>
         <v>0</v>
       </c>
       <c r="T21" s="11">
-        <f t="shared" ref="T21" si="43">SUM(T15:T20)</f>
+        <f t="shared" ref="T21" si="45">SUM(T15:T20)</f>
         <v>0</v>
       </c>
       <c r="U21" s="11">
-        <f t="shared" ref="U21" si="44">SUM(U15:U20)</f>
+        <f t="shared" ref="U21" si="46">SUM(U15:U20)</f>
         <v>17976</v>
       </c>
       <c r="V21" s="11">
-        <f t="shared" ref="V21" si="45">SUM(V15:V20)</f>
+        <f t="shared" ref="V21" si="47">SUM(V15:V20)</f>
         <v>17234</v>
       </c>
       <c r="W21" s="11">
-        <f t="shared" ref="W21" si="46">SUM(W15:W20)</f>
+        <f t="shared" ref="W21" si="48">SUM(W15:W20)</f>
         <v>17411</v>
       </c>
       <c r="X21" s="11">
-        <f t="shared" ref="X21" si="47">SUM(X15:X20)</f>
+        <f t="shared" ref="X21" si="49">SUM(X15:X20)</f>
         <v>22637</v>
       </c>
       <c r="Y21" s="11">
-        <f t="shared" ref="Y21" si="48">SUM(Y15:Y20)</f>
+        <f t="shared" ref="Y21" si="50">SUM(Y15:Y20)</f>
         <v>23297</v>
       </c>
       <c r="Z21" s="11">
-        <f t="shared" ref="Z21" si="49">SUM(Z15:Z20)</f>
+        <f t="shared" ref="Z21" si="51">SUM(Z15:Z20)</f>
         <v>22465</v>
       </c>
       <c r="AA21" s="11">
-        <f t="shared" ref="AA21" si="50">SUM(AA15:AA20)</f>
+        <f t="shared" ref="AA21" si="52">SUM(AA15:AA20)</f>
         <v>22676.171399999999</v>
       </c>
       <c r="AB21" s="11">
-        <f t="shared" ref="AB21" si="51">SUM(AB15:AB20)</f>
+        <f t="shared" ref="AB21" si="53">SUM(AB15:AB20)</f>
         <v>0</v>
       </c>
       <c r="AC21" s="11">
-        <f t="shared" ref="AC21" si="52">SUM(AC15:AC20)</f>
+        <f t="shared" ref="AC21" si="54">SUM(AC15:AC20)</f>
         <v>0</v>
       </c>
       <c r="AD21" s="11">
-        <f t="shared" ref="AD21" si="53">SUM(AD15:AD20)</f>
+        <f t="shared" ref="AD21" si="55">SUM(AD15:AD20)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="11">
-        <f t="shared" ref="AE21" si="54">SUM(AE15:AE20)</f>
+        <f t="shared" ref="AE21" si="56">SUM(AE15:AE20)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="11">
-        <f t="shared" ref="AF21" si="55">SUM(AF15:AF20)</f>
+        <f t="shared" ref="AF21" si="57">SUM(AF15:AF20)</f>
         <v>0</v>
       </c>
       <c r="AG21" s="11">
-        <f t="shared" ref="AG21" si="56">SUM(AG15:AG20)</f>
+        <f t="shared" ref="AG21" si="58">SUM(AG15:AG20)</f>
         <v>0</v>
       </c>
       <c r="AH21" s="11">
-        <f t="shared" ref="AH21" si="57">SUM(AH15:AH20)</f>
+        <f t="shared" ref="AH21" si="59">SUM(AH15:AH20)</f>
         <v>0</v>
       </c>
       <c r="AI21" s="11">
-        <f t="shared" ref="AI21" si="58">SUM(AI15:AI20)</f>
+        <f t="shared" ref="AI21" si="60">SUM(AI15:AI20)</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="11">
-        <f t="shared" ref="AJ21" si="59">SUM(AJ15:AJ20)</f>
+        <f t="shared" ref="AJ21" si="61">SUM(AJ15:AJ20)</f>
         <v>0</v>
       </c>
       <c r="AK21" s="11">
-        <f t="shared" ref="AK21" si="60">SUM(AK15:AK20)</f>
+        <f t="shared" ref="AK21" si="62">SUM(AK15:AK20)</f>
         <v>0</v>
       </c>
       <c r="AL21" s="11">
-        <f t="shared" ref="AL21" si="61">SUM(AL15:AL20)</f>
+        <f t="shared" ref="AL21" si="63">SUM(AL15:AL20)</f>
         <v>0</v>
       </c>
       <c r="AM21" s="11">
-        <f t="shared" ref="AM21" si="62">SUM(AM15:AM20)</f>
+        <f t="shared" ref="AM21" si="64">SUM(AM15:AM20)</f>
         <v>0</v>
       </c>
       <c r="AN21" s="11">
-        <f t="shared" ref="AN21" si="63">SUM(AN15:AN20)</f>
+        <f t="shared" ref="AN21" si="65">SUM(AN15:AN20)</f>
         <v>0</v>
       </c>
       <c r="AO21" s="11">
-        <f t="shared" ref="AO21" si="64">SUM(AO15:AO20)</f>
+        <f t="shared" ref="AO21" si="66">SUM(AO15:AO20)</f>
         <v>0</v>
       </c>
       <c r="AP21" s="11">
-        <f t="shared" ref="AA21:AS21" si="65">SUM(AP15:AP17)</f>
+        <f t="shared" ref="AP21:AS21" si="67">SUM(AP15:AP17)</f>
         <v>0</v>
       </c>
       <c r="AQ21" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AR21" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AS21" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
@@ -2329,175 +2329,175 @@
         <v>27</v>
       </c>
       <c r="C22" s="23" t="e">
-        <f t="shared" ref="C22:R22" si="66">C14-C21</f>
+        <f t="shared" ref="C22:Q22" si="68">C14-C21</f>
         <v>#REF!</v>
       </c>
       <c r="D22" s="23" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#REF!</v>
       </c>
       <c r="E22" s="23" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#REF!</v>
       </c>
       <c r="F22" s="23" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#REF!</v>
       </c>
       <c r="G22" s="23" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#REF!</v>
       </c>
       <c r="H22" s="23" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#REF!</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3260</v>
       </c>
       <c r="J22" s="23" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#REF!</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3296</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3622</v>
       </c>
       <c r="M22" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3750</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3257</v>
       </c>
       <c r="O22" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3991</v>
       </c>
       <c r="P22" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4220</v>
       </c>
       <c r="Q22" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4600.880000000001</v>
       </c>
       <c r="R22" s="11">
-        <f t="shared" ref="R22" si="67">R14-R21</f>
+        <f t="shared" ref="R22" si="69">R14-R21</f>
         <v>5837.4690999999984</v>
       </c>
       <c r="S22" s="11">
-        <f t="shared" ref="S22" si="68">S14-S21</f>
+        <f t="shared" ref="S22" si="70">S14-S21</f>
         <v>0</v>
       </c>
       <c r="T22" s="11">
-        <f t="shared" ref="T22" si="69">T14-T21</f>
+        <f t="shared" ref="T22" si="71">T14-T21</f>
         <v>0</v>
       </c>
       <c r="U22" s="11">
-        <f t="shared" ref="U22" si="70">U14-U21</f>
+        <f t="shared" ref="U22" si="72">U14-U21</f>
         <v>13535</v>
       </c>
       <c r="V22" s="11">
-        <f t="shared" ref="V22" si="71">V14-V21</f>
+        <f t="shared" ref="V22" si="73">V14-V21</f>
         <v>13896</v>
       </c>
       <c r="W22" s="11">
-        <f t="shared" ref="W22" si="72">W14-W21</f>
+        <f t="shared" ref="W22" si="74">W14-W21</f>
         <v>15213</v>
       </c>
       <c r="X22" s="11">
-        <f t="shared" ref="X22" si="73">X14-X21</f>
+        <f t="shared" ref="X22" si="75">X14-X21</f>
         <v>10926</v>
       </c>
       <c r="Y22" s="11">
-        <f t="shared" ref="Y22" si="74">Y14-Y21</f>
+        <f t="shared" ref="Y22" si="76">Y14-Y21</f>
         <v>13093</v>
       </c>
       <c r="Z22" s="11">
-        <f t="shared" ref="Z22" si="75">Z14-Z21</f>
+        <f t="shared" ref="Z22" si="77">Z14-Z21</f>
         <v>15353</v>
       </c>
       <c r="AA22" s="11">
-        <f t="shared" ref="AA22" si="76">AA14-AA21</f>
+        <f t="shared" ref="AA22" si="78">AA14-AA21</f>
         <v>18649.349099999992</v>
       </c>
       <c r="AB22" s="11">
-        <f t="shared" ref="AB22" si="77">AB14-AB21</f>
+        <f t="shared" ref="AB22" si="79">AB14-AB21</f>
         <v>0</v>
       </c>
       <c r="AC22" s="11">
-        <f t="shared" ref="AC22" si="78">AC14-AC21</f>
+        <f t="shared" ref="AC22" si="80">AC14-AC21</f>
         <v>0</v>
       </c>
       <c r="AD22" s="11">
-        <f t="shared" ref="AD22" si="79">AD14-AD21</f>
+        <f t="shared" ref="AD22" si="81">AD14-AD21</f>
         <v>0</v>
       </c>
       <c r="AE22" s="11">
-        <f t="shared" ref="AE22" si="80">AE14-AE21</f>
+        <f t="shared" ref="AE22" si="82">AE14-AE21</f>
         <v>0</v>
       </c>
       <c r="AF22" s="11">
-        <f t="shared" ref="AF22" si="81">AF14-AF21</f>
+        <f t="shared" ref="AF22" si="83">AF14-AF21</f>
         <v>0</v>
       </c>
       <c r="AG22" s="11">
-        <f t="shared" ref="AG22" si="82">AG14-AG21</f>
+        <f t="shared" ref="AG22" si="84">AG14-AG21</f>
         <v>0</v>
       </c>
       <c r="AH22" s="11">
-        <f t="shared" ref="AH22" si="83">AH14-AH21</f>
+        <f t="shared" ref="AH22" si="85">AH14-AH21</f>
         <v>0</v>
       </c>
       <c r="AI22" s="11">
-        <f t="shared" ref="AI22" si="84">AI14-AI21</f>
+        <f t="shared" ref="AI22" si="86">AI14-AI21</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="11">
-        <f t="shared" ref="AJ22" si="85">AJ14-AJ21</f>
+        <f t="shared" ref="AJ22" si="87">AJ14-AJ21</f>
         <v>0</v>
       </c>
       <c r="AK22" s="11">
-        <f t="shared" ref="AK22" si="86">AK14-AK21</f>
+        <f t="shared" ref="AK22" si="88">AK14-AK21</f>
         <v>0</v>
       </c>
       <c r="AL22" s="11">
-        <f t="shared" ref="AL22" si="87">AL14-AL21</f>
+        <f t="shared" ref="AL22" si="89">AL14-AL21</f>
         <v>0</v>
       </c>
       <c r="AM22" s="11">
-        <f t="shared" ref="AM22" si="88">AM14-AM21</f>
+        <f t="shared" ref="AM22" si="90">AM14-AM21</f>
         <v>0</v>
       </c>
       <c r="AN22" s="11">
-        <f t="shared" ref="AN22" si="89">AN14-AN21</f>
+        <f t="shared" ref="AN22" si="91">AN14-AN21</f>
         <v>0</v>
       </c>
       <c r="AO22" s="11">
-        <f t="shared" ref="AO22" si="90">AO14-AO21</f>
+        <f t="shared" ref="AO22" si="92">AO14-AO21</f>
         <v>0</v>
       </c>
       <c r="AP22" s="11">
-        <f t="shared" ref="Y22:AS22" si="91">AP14-AP21</f>
+        <f t="shared" ref="AP22:AS22" si="93">AP14-AP21</f>
         <v>0</v>
       </c>
       <c r="AQ22" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AR22" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AS22" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
         <v>-3514</v>
       </c>
       <c r="AA23" s="9">
-        <f t="shared" ref="AA23:AA24" si="92">SUM(O23:R23)</f>
+        <f t="shared" ref="AA23:AA24" si="94">SUM(O23:R23)</f>
         <v>-3108</v>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
         <v>-98</v>
       </c>
       <c r="AA24" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1306</v>
       </c>
     </row>
@@ -2656,47 +2656,47 @@
         <v>#REF!</v>
       </c>
       <c r="E25" s="11" t="e">
-        <f t="shared" ref="E25:O25" si="93">E22+E23+E24</f>
+        <f t="shared" ref="E25:O25" si="95">E22+E23+E24</f>
         <v>#REF!</v>
       </c>
       <c r="F25" s="11" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>#REF!</v>
       </c>
       <c r="G25" s="11" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>#REF!</v>
       </c>
       <c r="H25" s="11" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>#REF!</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>2218</v>
       </c>
       <c r="J25" s="11" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>#REF!</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>2375</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>2720</v>
       </c>
       <c r="M25" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>2865</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>2353</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>3169</v>
       </c>
       <c r="P25" s="11">
@@ -2704,35 +2704,35 @@
         <v>3390</v>
       </c>
       <c r="Q25" s="11">
-        <f t="shared" ref="Q25:R25" si="94">Q22+Q23+Q24</f>
+        <f t="shared" ref="Q25:R25" si="96">Q22+Q23+Q24</f>
         <v>4400.880000000001</v>
       </c>
       <c r="R25" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>5887.4690999999984</v>
       </c>
       <c r="T25" s="11">
-        <f t="shared" ref="T25:Y25" si="95">T22+T23+T24</f>
+        <f t="shared" ref="T25:Y25" si="97">T22+T23+T24</f>
         <v>0</v>
       </c>
       <c r="U25" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>12268</v>
       </c>
       <c r="V25" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>12063</v>
       </c>
       <c r="W25" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>12999</v>
       </c>
       <c r="X25" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>7649</v>
       </c>
       <c r="Y25" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>9126</v>
       </c>
       <c r="Z25" s="11">
@@ -2740,47 +2740,47 @@
         <v>11741</v>
       </c>
       <c r="AA25" s="11">
-        <f t="shared" ref="AA25" si="96">AA22+AA23+AA24</f>
+        <f t="shared" ref="AA25" si="98">AA22+AA23+AA24</f>
         <v>16847.349099999992</v>
       </c>
       <c r="AB25" s="11">
-        <f t="shared" ref="AB25" si="97">AB22+AB23+AB24</f>
+        <f t="shared" ref="AB25" si="99">AB22+AB23+AB24</f>
         <v>0</v>
       </c>
       <c r="AC25" s="11">
-        <f t="shared" ref="AC25" si="98">AC22+AC23+AC24</f>
+        <f t="shared" ref="AC25" si="100">AC22+AC23+AC24</f>
         <v>0</v>
       </c>
       <c r="AD25" s="11">
-        <f t="shared" ref="AD25" si="99">AD22+AD23+AD24</f>
+        <f t="shared" ref="AD25" si="101">AD22+AD23+AD24</f>
         <v>0</v>
       </c>
       <c r="AE25" s="11">
-        <f t="shared" ref="AE25" si="100">AE22+AE23+AE24</f>
+        <f t="shared" ref="AE25" si="102">AE22+AE23+AE24</f>
         <v>0</v>
       </c>
       <c r="AF25" s="11">
-        <f t="shared" ref="AF25" si="101">AF22+AF23+AF24</f>
+        <f t="shared" ref="AF25" si="103">AF22+AF23+AF24</f>
         <v>0</v>
       </c>
       <c r="AG25" s="11">
-        <f t="shared" ref="AG25" si="102">AG22+AG23+AG24</f>
+        <f t="shared" ref="AG25" si="104">AG22+AG23+AG24</f>
         <v>0</v>
       </c>
       <c r="AH25" s="11">
-        <f t="shared" ref="AH25" si="103">AH22+AH23+AH24</f>
+        <f t="shared" ref="AH25" si="105">AH22+AH23+AH24</f>
         <v>0</v>
       </c>
       <c r="AI25" s="11">
-        <f t="shared" ref="AI25" si="104">AI22+AI23+AI24</f>
+        <f t="shared" ref="AI25" si="106">AI22+AI23+AI24</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="11">
-        <f t="shared" ref="AJ25" si="105">AJ22+AJ23+AJ24</f>
+        <f t="shared" ref="AJ25" si="107">AJ22+AJ23+AJ24</f>
         <v>0</v>
       </c>
       <c r="AK25" s="11">
-        <f t="shared" ref="AK25" si="106">AK22+AK23+AK24</f>
+        <f t="shared" ref="AK25" si="108">AK22+AK23+AK24</f>
         <v>0</v>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
         <v>1274</v>
       </c>
       <c r="AA26" s="9">
-        <f t="shared" ref="AA26" si="107">SUM(O26:R26)</f>
+        <f t="shared" ref="AA26" si="109">SUM(O26:R26)</f>
         <v>1204.3437861061948</v>
       </c>
     </row>
@@ -2869,43 +2869,43 @@
         <v>31</v>
       </c>
       <c r="C27" s="21" t="e">
-        <f t="shared" ref="C27:P27" si="108">C25-C26</f>
+        <f t="shared" ref="C27:P27" si="110">C25-C26</f>
         <v>#REF!</v>
       </c>
       <c r="D27" s="21" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>#REF!</v>
       </c>
       <c r="E27" s="21" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>#REF!</v>
       </c>
       <c r="F27" s="21" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>#REF!</v>
       </c>
       <c r="G27" s="21" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>#REF!</v>
       </c>
       <c r="H27" s="21" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>#REF!</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" ref="I27" si="109">I25-I26</f>
+        <f t="shared" ref="I27" si="111">I25-I26</f>
         <v>1896</v>
       </c>
       <c r="J27" s="21" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>#REF!</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>2420</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>2503</v>
       </c>
       <c r="M27" s="15">
@@ -2913,15 +2913,15 @@
         <v>2401</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1715</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>2929</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>3151</v>
       </c>
       <c r="Q27" s="15">
@@ -2934,63 +2934,63 @@
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="15">
-        <f t="shared" ref="T27:Z27" si="110">T25-T26</f>
+        <f t="shared" ref="T27:Z27" si="112">T25-T26</f>
         <v>0</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>11083</v>
       </c>
       <c r="V27" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>10135</v>
       </c>
       <c r="W27" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>13746</v>
       </c>
       <c r="X27" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6717</v>
       </c>
       <c r="Y27" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>8503</v>
       </c>
       <c r="Z27" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>10467</v>
       </c>
       <c r="AA27" s="15">
-        <f>AA9*AA33</f>
+        <f t="shared" ref="AA27:AH27" si="113">AA9*AA33</f>
         <v>13268.509352999999</v>
       </c>
       <c r="AB27" s="15">
-        <f>AB9*AB33</f>
+        <f t="shared" si="113"/>
         <v>19480.479297047994</v>
       </c>
       <c r="AC27" s="15">
-        <f>AC9*AC33</f>
+        <f t="shared" si="113"/>
         <v>22142.811467644555</v>
       </c>
       <c r="AD27" s="15">
-        <f>AD9*AD33</f>
+        <f t="shared" si="113"/>
         <v>24914.234322304586</v>
       </c>
       <c r="AE27" s="15">
-        <f>AE9*AE33</f>
+        <f t="shared" si="113"/>
         <v>28262.084559364266</v>
       </c>
       <c r="AF27" s="15">
-        <f>AF9*AF33</f>
+        <f t="shared" si="113"/>
         <v>31739.177386970903</v>
       </c>
       <c r="AG27" s="15">
-        <f>AG9*AG33</f>
+        <f t="shared" si="113"/>
         <v>35286.497212573537</v>
       </c>
       <c r="AH27" s="15">
-        <f>AH9*AH33</f>
+        <f t="shared" si="113"/>
         <v>37756.552017453687</v>
       </c>
       <c r="AI27" s="15">
@@ -3503,55 +3503,55 @@
         <v>32</v>
       </c>
       <c r="C28" s="12" t="e">
-        <f t="shared" ref="C28:O28" si="111">C27/C29</f>
+        <f t="shared" ref="C28:O28" si="114">C27/C29</f>
         <v>#REF!</v>
       </c>
       <c r="D28" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>#REF!</v>
       </c>
       <c r="E28" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>#REF!</v>
       </c>
       <c r="F28" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>#REF!</v>
       </c>
       <c r="G28" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>#REF!</v>
       </c>
       <c r="H28" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>#REF!</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.68299711815561959</v>
       </c>
       <c r="J28" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>#REF!</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.85724406659582009</v>
       </c>
       <c r="L28" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.888533901313454</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.85172046825115288</v>
       </c>
       <c r="N28" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.6075097414098477</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>1.0273588214661522</v>
       </c>
       <c r="P28" s="12">
@@ -3559,11 +3559,11 @@
         <v>1.0982920878354827</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" ref="Q28:R28" si="112">Q27/Q29</f>
+        <f t="shared" ref="Q28:R28" si="115">Q27/Q29</f>
         <v>1.4257969567886195</v>
       </c>
       <c r="R28" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>1.9074220442200263</v>
       </c>
       <c r="S28" s="12"/>
@@ -3572,59 +3572,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="12">
-        <f t="shared" ref="U28:Z28" si="113">U27/U29</f>
+        <f t="shared" ref="U28:Z28" si="116">U27/U29</f>
         <v>2.969721329046088</v>
       </c>
       <c r="V28" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>3.0768063145112325</v>
       </c>
       <c r="W28" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>4.5486432825943082</v>
       </c>
       <c r="X28" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>2.4109834888729362</v>
       </c>
       <c r="Y28" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>3.0741142443962399</v>
       </c>
       <c r="Z28" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>3.7077577045696066</v>
       </c>
       <c r="AA28" s="12">
-        <f>AA27/AA29</f>
+        <f t="shared" ref="AA28:AH28" si="117">AA27/AA29</f>
         <v>4.7001450063761956</v>
       </c>
       <c r="AB28" s="12">
-        <f>AB27/AB29</f>
+        <f t="shared" si="117"/>
         <v>6.9006302858831008</v>
       </c>
       <c r="AC28" s="12">
-        <f>AC27/AC29</f>
+        <f t="shared" si="117"/>
         <v>7.8437164249537918</v>
       </c>
       <c r="AD28" s="12">
-        <f>AD27/AD29</f>
+        <f t="shared" si="117"/>
         <v>8.8254460936254286</v>
       </c>
       <c r="AE28" s="12">
-        <f>AE27/AE29</f>
+        <f t="shared" si="117"/>
         <v>10.011365412456346</v>
       </c>
       <c r="AF28" s="12">
-        <f>AF27/AF29</f>
+        <f t="shared" si="117"/>
         <v>11.243066732897947</v>
       </c>
       <c r="AG28" s="12">
-        <f>AG27/AG29</f>
+        <f t="shared" si="117"/>
         <v>12.499644779515954</v>
       </c>
       <c r="AH28" s="12">
-        <f>AH27/AH29</f>
+        <f t="shared" si="117"/>
         <v>13.374619914082071</v>
       </c>
       <c r="AI28" s="12"/>
@@ -3730,23 +3730,23 @@
         <v>2823</v>
       </c>
       <c r="AD29" s="9">
-        <f t="shared" ref="AD29:AH29" si="114">AC29</f>
+        <f t="shared" ref="AD29:AH29" si="118">AC29</f>
         <v>2823</v>
       </c>
       <c r="AE29" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>2823</v>
       </c>
       <c r="AF29" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>2823</v>
       </c>
       <c r="AG29" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>2823</v>
       </c>
       <c r="AH29" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>2823</v>
       </c>
       <c r="AI29" s="9"/>
@@ -3863,11 +3863,11 @@
         <v>0.17704995287464653</v>
       </c>
       <c r="Z31" s="13">
-        <f t="shared" ref="Z31:AA31" si="115">Z9/Y9-1</f>
+        <f t="shared" ref="Z31:AA31" si="119">Z9/Y9-1</f>
         <v>6.0195379749369504E-2</v>
       </c>
       <c r="AA31" s="13">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>8.9276469477539866E-2</v>
       </c>
       <c r="AB31" s="13">
@@ -3917,68 +3917,68 @@
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="13">
-        <f>K14/K9</f>
+        <f t="shared" ref="K32:R32" si="120">K14/K9</f>
         <v>0.71011001365132898</v>
       </c>
       <c r="L32" s="13">
-        <f>L14/L9</f>
+        <f t="shared" si="120"/>
         <v>0.71099605903716867</v>
       </c>
       <c r="M32" s="13">
-        <f>M14/M9</f>
+        <f t="shared" si="120"/>
         <v>0.70865963855421688</v>
       </c>
       <c r="N32" s="13">
-        <f>N14/N9</f>
+        <f t="shared" si="120"/>
         <v>0.62539371456568904</v>
       </c>
       <c r="O32" s="13">
-        <f>O14/O9</f>
+        <f t="shared" si="120"/>
         <v>0.70647027880063129</v>
       </c>
       <c r="P32" s="13">
-        <f>P14/P9</f>
+        <f t="shared" si="120"/>
         <v>0.70943879365530982</v>
       </c>
       <c r="Q32" s="13">
-        <f>Q14/Q9</f>
+        <f t="shared" si="120"/>
         <v>0.71762916919176478</v>
       </c>
       <c r="R32" s="13">
-        <f>R14/R9</f>
+        <f t="shared" si="120"/>
         <v>0.72953609464308067</v>
       </c>
       <c r="S32" s="13"/>
       <c r="T32" s="13" t="e">
-        <f>T14/T9</f>
+        <f t="shared" ref="T32:AA32" si="121">T14/T9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="13">
-        <f>U14/U9</f>
+        <f t="shared" si="121"/>
         <v>0.79762567711233734</v>
       </c>
       <c r="V32" s="13">
-        <f>V14/V9</f>
+        <f t="shared" si="121"/>
         <v>0.79681580833418653</v>
       </c>
       <c r="W32" s="13">
-        <f>W14/W9</f>
+        <f t="shared" si="121"/>
         <v>0.80594876355641198</v>
       </c>
       <c r="X32" s="13">
-        <f>X14/X9</f>
+        <f t="shared" si="121"/>
         <v>0.79083411875589071</v>
       </c>
       <c r="Y32" s="13">
-        <f>Y14/Y9</f>
+        <f t="shared" si="121"/>
         <v>0.72847019257717105</v>
       </c>
       <c r="Z32" s="13">
-        <f>Z14/Z9</f>
+        <f t="shared" si="121"/>
         <v>0.71407261947470779</v>
       </c>
       <c r="AA32" s="13">
-        <f>AA14/AA9</f>
+        <f t="shared" si="121"/>
         <v>0.71634796811979151</v>
       </c>
       <c r="AB32" s="13"/>
@@ -4018,63 +4018,63 @@
         <v>0.19433068336946921</v>
       </c>
       <c r="L33" s="13">
-        <f t="shared" ref="L33:Z33" si="116">L27/L9</f>
+        <f t="shared" ref="L33:Z33" si="122">L27/L9</f>
         <v>0.19341627385827989</v>
       </c>
       <c r="M33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.18079819277108433</v>
       </c>
       <c r="N33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.12003919647231749</v>
       </c>
       <c r="O33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.22010971669046367</v>
       </c>
       <c r="P33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.22412689380468029</v>
       </c>
       <c r="Q33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.28428977578703479</v>
       </c>
       <c r="R33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.34343503645839979</v>
       </c>
       <c r="S33" s="13" t="e">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="13" t="e">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.28053966486103377</v>
       </c>
       <c r="V33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.25941947373809765</v>
       </c>
       <c r="W33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.3395834877343808</v>
       </c>
       <c r="X33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.15827049952874647</v>
       </c>
       <c r="Y33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.17021659927132962</v>
       </c>
       <c r="Z33" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.19763599629916354</v>
       </c>
       <c r="AA33" s="13">
@@ -4099,7 +4099,7 @@
         <v>0.35</v>
       </c>
       <c r="AH33" s="13">
-        <f t="shared" ref="AH33" si="117">AG33</f>
+        <f t="shared" ref="AH33" si="123">AG33</f>
         <v>0.35</v>
       </c>
       <c r="AI33" s="13"/>
@@ -4128,68 +4128,68 @@
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="13">
-        <f t="shared" ref="K34:R34" si="118">K26/K25</f>
+        <f t="shared" ref="K34:R34" si="124">K26/K25</f>
         <v>-1.8947368421052633E-2</v>
       </c>
       <c r="L34" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>7.9779411764705876E-2</v>
       </c>
       <c r="M34" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0.16195462478184991</v>
       </c>
       <c r="N34" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0.27114322141946451</v>
       </c>
       <c r="O34" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>7.5733669927421893E-2</v>
       </c>
       <c r="P34" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>7.0501474926253693E-2</v>
       </c>
       <c r="Q34" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>7.0501474926253693E-2</v>
       </c>
       <c r="R34" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>7.0501474926253693E-2</v>
       </c>
       <c r="S34" s="13"/>
       <c r="T34" s="13" t="e">
-        <f>T26/T25</f>
+        <f t="shared" ref="T34:AA34" si="125">T26/T25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U34" s="13">
-        <f>U26/U25</f>
+        <f t="shared" si="125"/>
         <v>9.6592761656341702E-2</v>
       </c>
       <c r="V34" s="13">
-        <f>V26/V25</f>
+        <f t="shared" si="125"/>
         <v>0.15982757191411756</v>
       </c>
       <c r="W34" s="13">
-        <f>W26/W25</f>
+        <f t="shared" si="125"/>
         <v>-5.7465958919916918E-2</v>
       </c>
       <c r="X34" s="13">
-        <f>X26/X25</f>
+        <f t="shared" si="125"/>
         <v>0.12184599294025363</v>
       </c>
       <c r="Y34" s="13">
-        <f>Y26/Y25</f>
+        <f t="shared" si="125"/>
         <v>6.826649134341442E-2</v>
       </c>
       <c r="Z34" s="13">
-        <f>Z26/Z25</f>
+        <f t="shared" si="125"/>
         <v>0.10850864491951281</v>
       </c>
       <c r="AA34" s="13">
-        <f>AA26/AA25</f>
+        <f t="shared" si="125"/>
         <v>7.1485655040305143E-2</v>
       </c>
       <c r="AB34" s="13"/>
